--- a/tools/yolov3-tiny.xlsx
+++ b/tools/yolov3-tiny.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CE4221FC-5E5F-DE42-A3E9-130D01E762E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684678F-CED4-AD4F-9833-62E3D3F35DC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="5100" windowWidth="20780" windowHeight="17440"/>
+    <workbookView xWindow="3400" yWindow="560" windowWidth="20780" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov3-tiny" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>x=x_13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>concat(x, x_8)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -117,13 +113,17 @@
   </si>
   <si>
     <t>→ middle_bbox</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>x → x_13</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -285,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,9 +734,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,11 +750,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1098,14 +1107,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1142,10 +1155,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1176,8 +1189,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1193,7 +1206,7 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -1223,7 +1236,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -1238,7 +1251,7 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -1268,7 +1281,7 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -1283,7 +1296,7 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -1313,7 +1326,7 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -1328,7 +1341,7 @@
       <c r="I9">
         <v>7</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -1355,10 +1368,10 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>8</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -1373,7 +1386,7 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1403,7 +1416,7 @@
       <c r="I12">
         <v>10</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -1418,7 +1431,7 @@
       <c r="I13">
         <v>11</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -1448,7 +1461,7 @@
       <c r="I14">
         <v>12</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -1475,7 +1488,7 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>13</v>
       </c>
       <c r="L15" t="s">
@@ -1510,7 +1523,7 @@
       <c r="I16">
         <v>14</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1539,7 +1552,7 @@
       <c r="I17">
         <v>15</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
@@ -1548,9 +1561,9 @@
       <c r="I18">
         <v>16</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="1"/>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1564,7 +1577,7 @@
         <v>-4</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1595,7 +1608,7 @@
       <c r="I20">
         <v>18</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1609,7 +1622,7 @@
       <c r="I21">
         <v>19</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
@@ -1622,7 +1635,7 @@
         <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1653,7 +1666,7 @@
       <c r="I23">
         <v>21</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1682,7 +1695,7 @@
       <c r="I24">
         <v>22</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
@@ -1691,9 +1704,9 @@
       <c r="I25">
         <v>23</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="1"/>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
